--- a/Container/Data/2024 Heat Production Optimization - Danfoss Deliveries - Source Data Manager.xlsx
+++ b/Container/Data/2024 Heat Production Optimization - Danfoss Deliveries - Source Data Manager.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevOpsProjects\OE3i_Documentation\MentorPlanner\Projects\2024 SDU student projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F899DB1-A4D3-415B-868F-52DAD92322B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEC08C4-5289-4B95-A7D6-ED9D873D9F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11385" yWindow="780" windowWidth="38310" windowHeight="19695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
-    <t>Winter period</t>
-  </si>
-  <si>
-    <t>Summer period</t>
-  </si>
-  <si>
     <t>Time from</t>
   </si>
   <si>
@@ -62,14 +59,20 @@
     <t>MWh</t>
   </si>
   <si>
+    <t>Winter period</t>
+  </si>
+  <si>
     <t>DKK / Mwh(el)</t>
+  </si>
+  <si>
+    <t>Summer period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +131,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -135,9 +141,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -163,7 +166,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -233,7 +236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2431,7 +2434,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658203504"/>
@@ -2490,7 +2493,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658202064"/>
@@ -2532,7 +2535,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="948367536"/>
@@ -2601,7 +2604,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2638,7 +2641,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2652,7 +2655,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2722,7 +2725,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4920,7 +4923,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658203504"/>
@@ -4979,7 +4982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658202064"/>
@@ -5021,7 +5024,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="948367536"/>
@@ -5090,7 +5093,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5127,7 +5130,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6331,6 +6334,1380 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Base data"/>
+      <sheetName val="2 units"/>
+      <sheetName val="Winter 4 units"/>
+      <sheetName val="Summer 4 units"/>
+      <sheetName val="From Morten"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="K2" t="str">
+            <v>Heat Demand</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>44965</v>
+          </cell>
+          <cell r="K4">
+            <v>6.6192613739726296</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>44965.041666666664</v>
+          </cell>
+          <cell r="K5">
+            <v>6.84601174916373</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>44965.083333333336</v>
+          </cell>
+          <cell r="K6">
+            <v>6.9766731612714104</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7">
+            <v>44965.125</v>
+          </cell>
+          <cell r="K7">
+            <v>7.0407957418629898</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8">
+            <v>44965.166666666664</v>
+          </cell>
+          <cell r="K8">
+            <v>7.7221662416881998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9">
+            <v>44965.208333333336</v>
+          </cell>
+          <cell r="K9">
+            <v>7.84574178658512</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10">
+            <v>44965.25</v>
+          </cell>
+          <cell r="K10">
+            <v>8.1469459606583996</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>44965.291666666664</v>
+          </cell>
+          <cell r="K11">
+            <v>7.6151792270053802</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="I12">
+            <v>44965.333333333336</v>
+          </cell>
+          <cell r="K12">
+            <v>7.5452741666028196</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="I13">
+            <v>44965.375</v>
+          </cell>
+          <cell r="K13">
+            <v>7.6039577871788904</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="I14">
+            <v>44965.416666666664</v>
+          </cell>
+          <cell r="K14">
+            <v>7.7545427419153796</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15">
+            <v>44965.458333333336</v>
+          </cell>
+          <cell r="K15">
+            <v>7.0587958264342996</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16">
+            <v>44965.5</v>
+          </cell>
+          <cell r="K16">
+            <v>6.6772910517825004</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17">
+            <v>44965.541666666664</v>
+          </cell>
+          <cell r="K17">
+            <v>6.7344913064103702</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18">
+            <v>44965.583333333336</v>
+          </cell>
+          <cell r="K18">
+            <v>6.8366544359305204</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19">
+            <v>44965.625</v>
+          </cell>
+          <cell r="K19">
+            <v>7.2960284248002303</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20">
+            <v>44965.666666666664</v>
+          </cell>
+          <cell r="K20">
+            <v>7.39383093677547</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21">
+            <v>44965.708333333336</v>
+          </cell>
+          <cell r="K21">
+            <v>7.6805693423459296</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22">
+            <v>44965.75</v>
+          </cell>
+          <cell r="K22">
+            <v>7.3760167388086897</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23">
+            <v>44965.791666666664</v>
+          </cell>
+          <cell r="K23">
+            <v>7.3991393359438602</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24">
+            <v>44965.833333333336</v>
+          </cell>
+          <cell r="K24">
+            <v>7.5630407018751598</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25">
+            <v>44965.875</v>
+          </cell>
+          <cell r="K25">
+            <v>7.6864329457693596</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26">
+            <v>44965.916666666664</v>
+          </cell>
+          <cell r="K26">
+            <v>7.6575718024582304</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27">
+            <v>44965.958333333336</v>
+          </cell>
+          <cell r="K27">
+            <v>7.5361741692495396</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="I28">
+            <v>44966</v>
+          </cell>
+          <cell r="K28">
+            <v>7.5811975567687897</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="I29">
+            <v>44966.041666666664</v>
+          </cell>
+          <cell r="K29">
+            <v>7.6816492396656697</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30">
+            <v>44966.083333333336</v>
+          </cell>
+          <cell r="K30">
+            <v>7.7117757886733003</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31">
+            <v>44966.125</v>
+          </cell>
+          <cell r="K31">
+            <v>7.7008162090645902</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32">
+            <v>44966.166666666664</v>
+          </cell>
+          <cell r="K32">
+            <v>8.1556127040675008</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="I33">
+            <v>44966.208333333336</v>
+          </cell>
+          <cell r="K33">
+            <v>8.4499518334884094</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="I34">
+            <v>44966.25</v>
+          </cell>
+          <cell r="K34">
+            <v>8.5068589728291908</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35">
+            <v>44966.291666666664</v>
+          </cell>
+          <cell r="K35">
+            <v>7.7880398709744902</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36">
+            <v>44966.333333333336</v>
+          </cell>
+          <cell r="K36">
+            <v>7.6354359882089797</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="I37">
+            <v>44966.375</v>
+          </cell>
+          <cell r="K37">
+            <v>7.7050818045356602</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="I38">
+            <v>44966.416666666664</v>
+          </cell>
+          <cell r="K38">
+            <v>7.64004776638693</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="I39">
+            <v>44966.458333333336</v>
+          </cell>
+          <cell r="K39">
+            <v>6.9949229698098998</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40">
+            <v>44966.5</v>
+          </cell>
+          <cell r="K40">
+            <v>6.39427780257608</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41">
+            <v>44966.541666666664</v>
+          </cell>
+          <cell r="K41">
+            <v>6.2233187590116996</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42">
+            <v>44966.583333333336</v>
+          </cell>
+          <cell r="K42">
+            <v>6.2789455976790904</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43">
+            <v>44966.625</v>
+          </cell>
+          <cell r="K43">
+            <v>6.7771797577526902</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44">
+            <v>44966.666666666664</v>
+          </cell>
+          <cell r="K44">
+            <v>7.0115302867870897</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45">
+            <v>44966.708333333336</v>
+          </cell>
+          <cell r="K45">
+            <v>7.1750254355557797</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46">
+            <v>44966.75</v>
+          </cell>
+          <cell r="K46">
+            <v>6.6531165309389397</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47">
+            <v>44966.791666666664</v>
+          </cell>
+          <cell r="K47">
+            <v>6.7192966681000899</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48">
+            <v>44966.833333333336</v>
+          </cell>
+          <cell r="K48">
+            <v>6.8612382308801001</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49">
+            <v>44966.875</v>
+          </cell>
+          <cell r="K49">
+            <v>6.8301126466303401</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50">
+            <v>44966.916666666664</v>
+          </cell>
+          <cell r="K50">
+            <v>6.8593902068564603</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51">
+            <v>44966.958333333336</v>
+          </cell>
+          <cell r="K51">
+            <v>6.7796913759766699</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="I52">
+            <v>44967</v>
+          </cell>
+          <cell r="K52">
+            <v>6.7967845010577301</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53">
+            <v>44967.041666666664</v>
+          </cell>
+          <cell r="K53">
+            <v>6.80002567403369</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="I54">
+            <v>44967.083333333336</v>
+          </cell>
+          <cell r="K54">
+            <v>6.8217013344661401</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55">
+            <v>44967.125</v>
+          </cell>
+          <cell r="K55">
+            <v>6.9521719273270497</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56">
+            <v>44967.166666666664</v>
+          </cell>
+          <cell r="K56">
+            <v>7.7283377901702499</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57">
+            <v>44967.208333333336</v>
+          </cell>
+          <cell r="K57">
+            <v>7.8965322817264703</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58">
+            <v>44967.25</v>
+          </cell>
+          <cell r="K58">
+            <v>8.1074729730502799</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59">
+            <v>44967.291666666664</v>
+          </cell>
+          <cell r="K59">
+            <v>7.6154606401406397</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60">
+            <v>44967.333333333336</v>
+          </cell>
+          <cell r="K60">
+            <v>7.6398610803739198</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61">
+            <v>44967.375</v>
+          </cell>
+          <cell r="K61">
+            <v>7.4392426139447396</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62">
+            <v>44967.416666666664</v>
+          </cell>
+          <cell r="K62">
+            <v>7.2632282137335702</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63">
+            <v>44967.458333333336</v>
+          </cell>
+          <cell r="K63">
+            <v>7.0256722159356499</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64">
+            <v>44967.5</v>
+          </cell>
+          <cell r="K64">
+            <v>6.7714975403589701</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65">
+            <v>44967.541666666664</v>
+          </cell>
+          <cell r="K65">
+            <v>6.7231395297612098</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66">
+            <v>44967.583333333336</v>
+          </cell>
+          <cell r="K66">
+            <v>6.9015648163024599</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67">
+            <v>44967.625</v>
+          </cell>
+          <cell r="K67">
+            <v>7.3419144156400398</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68">
+            <v>44967.666666666664</v>
+          </cell>
+          <cell r="K68">
+            <v>7.4846766782397696</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69">
+            <v>44967.708333333336</v>
+          </cell>
+          <cell r="K69">
+            <v>7.45086690611548</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70">
+            <v>44967.75</v>
+          </cell>
+          <cell r="K70">
+            <v>6.9161334104198904</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="I71">
+            <v>44967.791666666664</v>
+          </cell>
+          <cell r="K71">
+            <v>6.8183831374941901</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="I72">
+            <v>44967.833333333336</v>
+          </cell>
+          <cell r="K72">
+            <v>6.7785360300914501</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="I73">
+            <v>44967.875</v>
+          </cell>
+          <cell r="K73">
+            <v>6.6820294220704497</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="I74">
+            <v>44967.916666666664</v>
+          </cell>
+          <cell r="K74">
+            <v>6.5642166068500902</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="I75">
+            <v>44967.958333333336</v>
+          </cell>
+          <cell r="K75">
+            <v>6.45589886225806</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="I76">
+            <v>44968</v>
+          </cell>
+          <cell r="K76">
+            <v>6.3503692443535096</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="I77">
+            <v>44968.041666666664</v>
+          </cell>
+          <cell r="K77">
+            <v>6.3142232174221702</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="I78">
+            <v>44968.083333333336</v>
+          </cell>
+          <cell r="K78">
+            <v>6.3738729536623397</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="I79">
+            <v>44968.125</v>
+          </cell>
+          <cell r="K79">
+            <v>6.4331526796195204</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="I80">
+            <v>44968.166666666664</v>
+          </cell>
+          <cell r="K80">
+            <v>7.0370820453929896</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="I81">
+            <v>44968.208333333336</v>
+          </cell>
+          <cell r="K81">
+            <v>6.9634174653604299</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="I82">
+            <v>44968.25</v>
+          </cell>
+          <cell r="K82">
+            <v>6.9607078889756702</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="I83">
+            <v>44968.291666666664</v>
+          </cell>
+          <cell r="K83">
+            <v>6.6060179201073099</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="I84">
+            <v>44968.333333333336</v>
+          </cell>
+          <cell r="K84">
+            <v>6.8224191744462601</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="I85">
+            <v>44968.375</v>
+          </cell>
+          <cell r="K85">
+            <v>6.8888027479084304</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="I86">
+            <v>44968.416666666664</v>
+          </cell>
+          <cell r="K86">
+            <v>6.6916989976575696</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="I87">
+            <v>44968.458333333336</v>
+          </cell>
+          <cell r="K87">
+            <v>6.6223997248967503</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="I88">
+            <v>44968.5</v>
+          </cell>
+          <cell r="K88">
+            <v>6.49733220911265</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="I89">
+            <v>44968.541666666664</v>
+          </cell>
+          <cell r="K89">
+            <v>6.3951864180469498</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="I90">
+            <v>44968.583333333336</v>
+          </cell>
+          <cell r="K90">
+            <v>6.5774051953050803</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="I91">
+            <v>44968.625</v>
+          </cell>
+          <cell r="K91">
+            <v>6.1997325073708396</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="I92">
+            <v>44968.666666666664</v>
+          </cell>
+          <cell r="K92">
+            <v>6.2932444058375898</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="I93">
+            <v>44968.708333333336</v>
+          </cell>
+          <cell r="K93">
+            <v>6.0726719382135101</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="I94">
+            <v>44968.75</v>
+          </cell>
+          <cell r="K94">
+            <v>6.2666841952821999</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="I95">
+            <v>44968.791666666664</v>
+          </cell>
+          <cell r="K95">
+            <v>6.2992057518770999</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="I96">
+            <v>44968.833333333336</v>
+          </cell>
+          <cell r="K96">
+            <v>6.2483470616549903</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="I97">
+            <v>44968.875</v>
+          </cell>
+          <cell r="K97">
+            <v>6.1639168316647703</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="I98">
+            <v>44968.916666666664</v>
+          </cell>
+          <cell r="K98">
+            <v>6.2335364269934797</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="I99">
+            <v>44968.958333333336</v>
+          </cell>
+          <cell r="K99">
+            <v>6.0851729453020598</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="I100">
+            <v>44969</v>
+          </cell>
+          <cell r="K100">
+            <v>6.0503335291345897</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="I101">
+            <v>44969.041666666664</v>
+          </cell>
+          <cell r="K101">
+            <v>6.0455944325600699</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="I102">
+            <v>44969.083333333336</v>
+          </cell>
+          <cell r="K102">
+            <v>6.0633376388615998</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="I103">
+            <v>44969.125</v>
+          </cell>
+          <cell r="K103">
+            <v>6.2414380082914596</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="I104">
+            <v>44969.166666666664</v>
+          </cell>
+          <cell r="K104">
+            <v>6.7472543331827</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="I105">
+            <v>44969.208333333336</v>
+          </cell>
+          <cell r="K105">
+            <v>6.7444757774366302</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="I106">
+            <v>44969.25</v>
+          </cell>
+          <cell r="K106">
+            <v>6.71525664502356</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="I107">
+            <v>44969.291666666664</v>
+          </cell>
+          <cell r="K107">
+            <v>6.2657958902131199</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="I108">
+            <v>44969.333333333336</v>
+          </cell>
+          <cell r="K108">
+            <v>6.51262650811963</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="I109">
+            <v>44969.375</v>
+          </cell>
+          <cell r="K109">
+            <v>6.7084320845762901</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="I110">
+            <v>44969.416666666664</v>
+          </cell>
+          <cell r="K110">
+            <v>6.5945440527219201</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="I111">
+            <v>44969.458333333336</v>
+          </cell>
+          <cell r="K111">
+            <v>6.4140144984616203</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="I112">
+            <v>44969.5</v>
+          </cell>
+          <cell r="K112">
+            <v>6.2787251561193997</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="I113">
+            <v>44969.541666666664</v>
+          </cell>
+          <cell r="K113">
+            <v>6.2614768497660398</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="I114">
+            <v>44969.583333333336</v>
+          </cell>
+          <cell r="K114">
+            <v>6.5266598209473798</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="I115">
+            <v>44969.625</v>
+          </cell>
+          <cell r="K115">
+            <v>6.4838851521738396</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="I116">
+            <v>44969.666666666664</v>
+          </cell>
+          <cell r="K116">
+            <v>6.4506400331134301</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="I117">
+            <v>44969.708333333336</v>
+          </cell>
+          <cell r="K117">
+            <v>6.1440147841570099</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="I118">
+            <v>44969.75</v>
+          </cell>
+          <cell r="K118">
+            <v>6.2982917583521196</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="I119">
+            <v>44969.791666666664</v>
+          </cell>
+          <cell r="K119">
+            <v>6.1734569775565404</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="I120">
+            <v>44969.833333333336</v>
+          </cell>
+          <cell r="K120">
+            <v>6.0966213839817103</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="I121">
+            <v>44969.875</v>
+          </cell>
+          <cell r="K121">
+            <v>6.0931173978980402</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="I122">
+            <v>44969.916666666664</v>
+          </cell>
+          <cell r="K122">
+            <v>6.0875811251955598</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="I123">
+            <v>44969.958333333336</v>
+          </cell>
+          <cell r="K123">
+            <v>6.0284979341234104</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="I124">
+            <v>44970</v>
+          </cell>
+          <cell r="K124">
+            <v>6.0797698070592396</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="I125">
+            <v>44970.041666666664</v>
+          </cell>
+          <cell r="K125">
+            <v>6.1794051273981703</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="I126">
+            <v>44970.083333333336</v>
+          </cell>
+          <cell r="K126">
+            <v>6.2614536726943602</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="I127">
+            <v>44970.125</v>
+          </cell>
+          <cell r="K127">
+            <v>6.3944178127434501</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="I128">
+            <v>44970.166666666664</v>
+          </cell>
+          <cell r="K128">
+            <v>6.9610841912778199</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="I129">
+            <v>44970.208333333336</v>
+          </cell>
+          <cell r="K129">
+            <v>7.0851325545340096</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="I130">
+            <v>44970.25</v>
+          </cell>
+          <cell r="K130">
+            <v>7.33612105461465</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="I131">
+            <v>44970.291666666664</v>
+          </cell>
+          <cell r="K131">
+            <v>6.83985373733044</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="I132">
+            <v>44970.333333333336</v>
+          </cell>
+          <cell r="K132">
+            <v>6.9411423846520401</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="I133">
+            <v>44970.375</v>
+          </cell>
+          <cell r="K133">
+            <v>6.8556820234282903</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="I134">
+            <v>44970.416666666664</v>
+          </cell>
+          <cell r="K134">
+            <v>6.7337745411104599</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="I135">
+            <v>44970.458333333336</v>
+          </cell>
+          <cell r="K135">
+            <v>6.4576050460010102</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="I136">
+            <v>44970.5</v>
+          </cell>
+          <cell r="K136">
+            <v>6.2054886488935699</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="I137">
+            <v>44970.541666666664</v>
+          </cell>
+          <cell r="K137">
+            <v>6.2620981195123999</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="I138">
+            <v>44970.583333333336</v>
+          </cell>
+          <cell r="K138">
+            <v>6.3406551599147596</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="I139">
+            <v>44970.625</v>
+          </cell>
+          <cell r="K139">
+            <v>6.6588853322688797</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="I140">
+            <v>44970.666666666664</v>
+          </cell>
+          <cell r="K140">
+            <v>6.7108025411473404</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="I141">
+            <v>44970.708333333336</v>
+          </cell>
+          <cell r="K141">
+            <v>6.8131980672505197</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="I142">
+            <v>44970.75</v>
+          </cell>
+          <cell r="K142">
+            <v>6.4688391386275796</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="I143">
+            <v>44970.791666666664</v>
+          </cell>
+          <cell r="K143">
+            <v>6.2621748387132801</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="I144">
+            <v>44970.833333333336</v>
+          </cell>
+          <cell r="K144">
+            <v>6.1963878084609201</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="I145">
+            <v>44970.875</v>
+          </cell>
+          <cell r="K145">
+            <v>6.2194195154645699</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="I146">
+            <v>44970.916666666664</v>
+          </cell>
+          <cell r="K146">
+            <v>6.1477684179512702</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="I147">
+            <v>44970.958333333336</v>
+          </cell>
+          <cell r="K147">
+            <v>6.1939189723059904</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="I148">
+            <v>44971</v>
+          </cell>
+          <cell r="K148">
+            <v>6.15019200502873</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="I149">
+            <v>44971.041666666664</v>
+          </cell>
+          <cell r="K149">
+            <v>6.3341909077254899</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="I150">
+            <v>44971.083333333336</v>
+          </cell>
+          <cell r="K150">
+            <v>6.3157625979444703</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="I151">
+            <v>44971.125</v>
+          </cell>
+          <cell r="K151">
+            <v>6.3820360900402102</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="I152">
+            <v>44971.166666666664</v>
+          </cell>
+          <cell r="K152">
+            <v>7.02338449507607</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="I153">
+            <v>44971.208333333336</v>
+          </cell>
+          <cell r="K153">
+            <v>7.2139769520378101</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="I154">
+            <v>44971.25</v>
+          </cell>
+          <cell r="K154">
+            <v>7.3962422692743903</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="I155">
+            <v>44971.291666666664</v>
+          </cell>
+          <cell r="K155">
+            <v>6.9237910069171598</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="I156">
+            <v>44971.333333333336</v>
+          </cell>
+          <cell r="K156">
+            <v>7.0571404962555597</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="I157">
+            <v>44971.375</v>
+          </cell>
+          <cell r="K157">
+            <v>7.0161844196303704</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="I158">
+            <v>44971.416666666664</v>
+          </cell>
+          <cell r="K158">
+            <v>7.1238721008774997</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="I159">
+            <v>44971.458333333336</v>
+          </cell>
+          <cell r="K159">
+            <v>7.07641715822803</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="I160">
+            <v>44971.5</v>
+          </cell>
+          <cell r="K160">
+            <v>7.0834633240379201</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="I161">
+            <v>44971.541666666664</v>
+          </cell>
+          <cell r="K161">
+            <v>6.9982021751631596</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="I162">
+            <v>44971.583333333336</v>
+          </cell>
+          <cell r="K162">
+            <v>6.6433812543540602</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="I163">
+            <v>44971.625</v>
+          </cell>
+          <cell r="K163">
+            <v>7.0911076718672099</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="I164">
+            <v>44971.666666666664</v>
+          </cell>
+          <cell r="K164">
+            <v>7.0716468378175596</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="I165">
+            <v>44971.708333333336</v>
+          </cell>
+          <cell r="K165">
+            <v>7.0339406766374903</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="I166">
+            <v>44971.75</v>
+          </cell>
+          <cell r="K166">
+            <v>6.5302013586677496</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="I167">
+            <v>44971.791666666664</v>
+          </cell>
+          <cell r="K167">
+            <v>6.3820273280787498</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="I168">
+            <v>44971.833333333336</v>
+          </cell>
+          <cell r="K168">
+            <v>6.5124517742644397</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="I169">
+            <v>44971.875</v>
+          </cell>
+          <cell r="K169">
+            <v>6.3414254296525296</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="I170">
+            <v>44971.916666666664</v>
+          </cell>
+          <cell r="K170">
+            <v>6.4086483940551</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="I171">
+            <v>44971.958333333336</v>
+          </cell>
+          <cell r="K171">
+            <v>6.3471732405047998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6600,7 +7977,7 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
@@ -6611,73 +7988,73 @@
     <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="H3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>44965</v>
       </c>
@@ -6694,7 +8071,7 @@
       <c r="G4" s="1">
         <v>45115</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <f>G4+TIME(1,0,0)</f>
         <v>45115.041666666664</v>
       </c>
@@ -6705,7 +8082,7 @@
         <v>752.03</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44965.041666666664</v>
       </c>
@@ -6722,7 +8099,7 @@
       <c r="G5" s="1">
         <v>45115.041666666664</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <f t="shared" ref="H5:H68" si="1">G5+TIME(1,0,0)</f>
         <v>45115.083333333328</v>
       </c>
@@ -6733,7 +8110,7 @@
         <v>691.05</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44965.083333333336</v>
       </c>
@@ -6750,7 +8127,7 @@
       <c r="G6" s="1">
         <v>45115.083333333336</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>45115.125</v>
       </c>
@@ -6761,7 +8138,7 @@
         <v>674.78</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44965.125</v>
       </c>
@@ -6778,7 +8155,7 @@
       <c r="G7" s="1">
         <v>45115.125</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <f t="shared" si="1"/>
         <v>45115.166666666664</v>
       </c>
@@ -6789,7 +8166,7 @@
         <v>652.95000000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965.166666666664</v>
       </c>
@@ -6806,7 +8183,7 @@
       <c r="G8" s="1">
         <v>45115.166666666664</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
         <v>45115.208333333328</v>
       </c>
@@ -6817,7 +8194,7 @@
         <v>666.3</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965.208333333336</v>
       </c>
@@ -6834,7 +8211,7 @@
       <c r="G9" s="1">
         <v>45115.208333333336</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>45115.25</v>
       </c>
@@ -6845,7 +8222,7 @@
         <v>654.6</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44965.25</v>
       </c>
@@ -6862,7 +8239,7 @@
       <c r="G10" s="1">
         <v>45115.25</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>45115.291666666664</v>
       </c>
@@ -6873,7 +8250,7 @@
         <v>637.04999999999995</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44965.291666666664</v>
       </c>
@@ -6901,7 +8278,7 @@
         <v>639.45000000000005</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44965.333333333336</v>
       </c>
@@ -6929,7 +8306,7 @@
         <v>628.28</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44965.375</v>
       </c>
@@ -6957,7 +8334,7 @@
         <v>570.29999999999995</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44965.416666666664</v>
       </c>
@@ -6985,7 +8362,7 @@
         <v>456.75</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44965.458333333336</v>
       </c>
@@ -7013,7 +8390,7 @@
         <v>347.4</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44965.5</v>
       </c>
@@ -7041,7 +8418,7 @@
         <v>264.14999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>44965.541666666664</v>
       </c>
@@ -7069,7 +8446,7 @@
         <v>125.33</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>44965.583333333336</v>
       </c>
@@ -7097,7 +8474,7 @@
         <v>125.48</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>44965.625</v>
       </c>
@@ -7125,7 +8502,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44965.666666666664</v>
       </c>
@@ -7153,7 +8530,7 @@
         <v>456.75</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>44965.708333333336</v>
       </c>
@@ -7181,7 +8558,7 @@
         <v>625.5</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>44965.75</v>
       </c>
@@ -7209,7 +8586,7 @@
         <v>804.75</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>44965.791666666664</v>
       </c>
@@ -7237,7 +8614,7 @@
         <v>907.5</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>44965.833333333336</v>
       </c>
@@ -7265,7 +8642,7 @@
         <v>965.7</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44965.875</v>
       </c>
@@ -7293,7 +8670,7 @@
         <v>996.45</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44965.916666666664</v>
       </c>
@@ -7321,7 +8698,7 @@
         <v>972.9</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>44965.958333333336</v>
       </c>
@@ -7349,7 +8726,7 @@
         <v>869.4</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44966</v>
       </c>
@@ -7377,7 +8754,7 @@
         <v>820.8</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>44966.041666666664</v>
       </c>
@@ -7405,7 +8782,7 @@
         <v>763.05</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>44966.083333333336</v>
       </c>
@@ -7433,7 +8810,7 @@
         <v>763.65</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>44966.125</v>
       </c>
@@ -7461,7 +8838,7 @@
         <v>715.8</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>44966.166666666664</v>
       </c>
@@ -7489,7 +8866,7 @@
         <v>718.43</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44966.208333333336</v>
       </c>
@@ -7517,7 +8894,7 @@
         <v>726.9</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44966.25</v>
       </c>
@@ -7545,7 +8922,7 @@
         <v>710.1</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>44966.291666666664</v>
       </c>
@@ -7573,7 +8950,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44966.333333333336</v>
       </c>
@@ -7601,7 +8978,7 @@
         <v>646.79999999999995</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44966.375</v>
       </c>
@@ -7629,7 +9006,7 @@
         <v>578.33000000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44966.416666666664</v>
       </c>
@@ -7657,7 +9034,7 @@
         <v>450.9</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>44966.458333333336</v>
       </c>
@@ -7685,7 +9062,7 @@
         <v>375.9</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>44966.5</v>
       </c>
@@ -7713,7 +9090,7 @@
         <v>342.68</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>44966.541666666664</v>
       </c>
@@ -7741,7 +9118,7 @@
         <v>277.43</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44966.583333333336</v>
       </c>
@@ -7769,7 +9146,7 @@
         <v>336.38</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>44966.625</v>
       </c>
@@ -7797,7 +9174,7 @@
         <v>413.63</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44966.666666666664</v>
       </c>
@@ -7825,7 +9202,7 @@
         <v>547.35</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>44966.708333333336</v>
       </c>
@@ -7853,7 +9230,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44966.75</v>
       </c>
@@ -7881,7 +9258,7 @@
         <v>783.08</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44966.791666666664</v>
       </c>
@@ -7909,7 +9286,7 @@
         <v>916.58</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>44966.833333333336</v>
       </c>
@@ -7937,7 +9314,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44966.875</v>
       </c>
@@ -7965,7 +9342,7 @@
         <v>1005.75</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>44966.916666666664</v>
       </c>
@@ -7993,7 +9370,7 @@
         <v>990.9</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>44966.958333333336</v>
       </c>
@@ -8021,7 +9398,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>44967</v>
       </c>
@@ -8049,7 +9426,7 @@
         <v>843.68</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>44967.041666666664</v>
       </c>
@@ -8077,7 +9454,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44967.083333333336</v>
       </c>
@@ -8105,7 +9482,7 @@
         <v>707.25</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>44967.125</v>
       </c>
@@ -8133,7 +9510,7 @@
         <v>689.55</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>44967.166666666664</v>
       </c>
@@ -8161,7 +9538,7 @@
         <v>699.83</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>44967.208333333336</v>
       </c>
@@ -8189,7 +9566,7 @@
         <v>788.55</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>44967.25</v>
       </c>
@@ -8217,7 +9594,7 @@
         <v>912.53</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>44967.291666666664</v>
       </c>
@@ -8245,7 +9622,7 @@
         <v>995.85</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>44967.333333333336</v>
       </c>
@@ -8273,7 +9650,7 @@
         <v>1007.03</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>44967.375</v>
       </c>
@@ -8301,7 +9678,7 @@
         <v>884.63</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>44967.416666666664</v>
       </c>
@@ -8329,7 +9706,7 @@
         <v>789.6</v>
       </c>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>44967.458333333336</v>
       </c>
@@ -8357,7 +9734,7 @@
         <v>712.43</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>44967.5</v>
       </c>
@@ -8385,7 +9762,7 @@
         <v>669.23</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>44967.541666666664</v>
       </c>
@@ -8413,7 +9790,7 @@
         <v>601.20000000000005</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>44967.583333333336</v>
       </c>
@@ -8441,7 +9818,7 @@
         <v>483.53</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>44967.625</v>
       </c>
@@ -8469,7 +9846,7 @@
         <v>463.58</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>44967.666666666664</v>
       </c>
@@ -8497,7 +9874,7 @@
         <v>472.05</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>44967.708333333336</v>
       </c>
@@ -8525,7 +9902,7 @@
         <v>602.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>44967.75</v>
       </c>
@@ -8553,7 +9930,7 @@
         <v>914.78</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>44967.791666666664</v>
       </c>
@@ -8581,7 +9958,7 @@
         <v>1241.18</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>44967.833333333336</v>
       </c>
@@ -8609,7 +9986,7 @@
         <v>1319.18</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>44967.875</v>
       </c>
@@ -8637,7 +10014,7 @@
         <v>1350.53</v>
       </c>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>44967.916666666664</v>
       </c>
@@ -8665,7 +10042,7 @@
         <v>1221.9000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>44967.958333333336</v>
       </c>
@@ -8693,7 +10070,7 @@
         <v>1002.75</v>
       </c>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>44968</v>
       </c>
@@ -8721,7 +10098,7 @@
         <v>933.08</v>
       </c>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>44968.041666666664</v>
       </c>
@@ -8749,7 +10126,7 @@
         <v>868.05</v>
       </c>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>44968.083333333336</v>
       </c>
@@ -8777,7 +10154,7 @@
         <v>789.68</v>
       </c>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>44968.125</v>
       </c>
@@ -8805,7 +10182,7 @@
         <v>755.1</v>
       </c>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>44968.166666666664</v>
       </c>
@@ -8833,7 +10210,7 @@
         <v>747.75</v>
       </c>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>44968.208333333336</v>
       </c>
@@ -8861,7 +10238,7 @@
         <v>845.55</v>
       </c>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>44968.25</v>
       </c>
@@ -8889,7 +10266,7 @@
         <v>926.63</v>
       </c>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>44968.291666666664</v>
       </c>
@@ -8917,7 +10294,7 @@
         <v>940.43</v>
       </c>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>44968.333333333336</v>
       </c>
@@ -8945,7 +10322,7 @@
         <v>907.13</v>
       </c>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>44968.375</v>
       </c>
@@ -8973,7 +10350,7 @@
         <v>788.25</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>44968.416666666664</v>
       </c>
@@ -9001,7 +10378,7 @@
         <v>686.78</v>
       </c>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>44968.458333333336</v>
       </c>
@@ -9029,7 +10406,7 @@
         <v>489.38</v>
       </c>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>44968.5</v>
       </c>
@@ -9057,7 +10434,7 @@
         <v>422.85</v>
       </c>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>44968.541666666664</v>
       </c>
@@ -9085,7 +10462,7 @@
         <v>347.93</v>
       </c>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>44968.583333333336</v>
       </c>
@@ -9113,7 +10490,7 @@
         <v>355.43</v>
       </c>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>44968.625</v>
       </c>
@@ -9141,7 +10518,7 @@
         <v>434.1</v>
       </c>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>44968.666666666664</v>
       </c>
@@ -9169,7 +10546,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>44968.708333333336</v>
       </c>
@@ -9197,7 +10574,7 @@
         <v>698.4</v>
       </c>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>44968.75</v>
       </c>
@@ -9225,7 +10602,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>44968.791666666664</v>
       </c>
@@ -9253,7 +10630,7 @@
         <v>1061.6300000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>44968.833333333336</v>
       </c>
@@ -9281,7 +10658,7 @@
         <v>1200.1500000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>44968.875</v>
       </c>
@@ -9309,7 +10686,7 @@
         <v>1005.68</v>
       </c>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>44968.916666666664</v>
       </c>
@@ -9337,7 +10714,7 @@
         <v>892.5</v>
       </c>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>44968.958333333336</v>
       </c>
@@ -9365,7 +10742,7 @@
         <v>772.73</v>
       </c>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>44969</v>
       </c>
@@ -9393,7 +10770,7 @@
         <v>738.53</v>
       </c>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>44969.041666666664</v>
       </c>
@@ -9421,7 +10798,7 @@
         <v>682.5</v>
       </c>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>44969.083333333336</v>
       </c>
@@ -9449,7 +10826,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>44969.125</v>
       </c>
@@ -9477,7 +10854,7 @@
         <v>615.67999999999995</v>
       </c>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>44969.166666666664</v>
       </c>
@@ -9505,7 +10882,7 @@
         <v>580.5</v>
       </c>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>44969.208333333336</v>
       </c>
@@ -9533,7 +10910,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>44969.25</v>
       </c>
@@ -9561,7 +10938,7 @@
         <v>661.65</v>
       </c>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>44969.291666666664</v>
       </c>
@@ -9589,7 +10966,7 @@
         <v>865.5</v>
       </c>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>44969.333333333336</v>
       </c>
@@ -9617,7 +10994,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>44969.375</v>
       </c>
@@ -9645,7 +11022,7 @@
         <v>767.48</v>
       </c>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>44969.416666666664</v>
       </c>
@@ -9673,7 +11050,7 @@
         <v>622.5</v>
       </c>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>44969.458333333336</v>
       </c>
@@ -9701,7 +11078,7 @@
         <v>380.78</v>
       </c>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>44969.5</v>
       </c>
@@ -9729,7 +11106,7 @@
         <v>119.03</v>
       </c>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>44969.541666666664</v>
       </c>
@@ -9757,7 +11134,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>44969.583333333336</v>
       </c>
@@ -9785,7 +11162,7 @@
         <v>144.97999999999999</v>
       </c>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>44969.625</v>
       </c>
@@ -9813,7 +11190,7 @@
         <v>202.73</v>
       </c>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>44969.666666666664</v>
       </c>
@@ -9841,7 +11218,7 @@
         <v>221.18</v>
       </c>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>44969.708333333336</v>
       </c>
@@ -9869,7 +11246,7 @@
         <v>328.65</v>
       </c>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>44969.75</v>
       </c>
@@ -9897,7 +11274,7 @@
         <v>375.45</v>
       </c>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>44969.791666666664</v>
       </c>
@@ -9925,7 +11302,7 @@
         <v>601.95000000000005</v>
       </c>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>44969.833333333336</v>
       </c>
@@ -9953,7 +11330,7 @@
         <v>1043.25</v>
       </c>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>44969.875</v>
       </c>
@@ -9981,7 +11358,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>44969.916666666664</v>
       </c>
@@ -10009,7 +11386,7 @@
         <v>945.08</v>
       </c>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>44969.958333333336</v>
       </c>
@@ -10037,7 +11414,7 @@
         <v>854.33</v>
       </c>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>44970</v>
       </c>
@@ -10065,7 +11442,7 @@
         <v>786.9</v>
       </c>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>44970.041666666664</v>
       </c>
@@ -10093,7 +11470,7 @@
         <v>642.45000000000005</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>44970.083333333336</v>
       </c>
@@ -10121,7 +11498,7 @@
         <v>592.5</v>
       </c>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>44970.125</v>
       </c>
@@ -10149,7 +11526,7 @@
         <v>563.17999999999995</v>
       </c>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>44970.166666666664</v>
       </c>
@@ -10177,7 +11554,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>44970.208333333336</v>
       </c>
@@ -10205,7 +11582,7 @@
         <v>663.83</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>44970.25</v>
       </c>
@@ -10233,7 +11610,7 @@
         <v>766.73</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>44970.291666666664</v>
       </c>
@@ -10261,7 +11638,7 @@
         <v>828.53</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>44970.333333333336</v>
       </c>
@@ -10289,7 +11666,7 @@
         <v>893.25</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>44970.375</v>
       </c>
@@ -10317,7 +11694,7 @@
         <v>652.20000000000005</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>44970.416666666664</v>
       </c>
@@ -10345,7 +11722,7 @@
         <v>365.78</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>44970.458333333336</v>
       </c>
@@ -10373,7 +11750,7 @@
         <v>356.93</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>44970.5</v>
       </c>
@@ -10401,7 +11778,7 @@
         <v>370.43</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>44970.541666666664</v>
       </c>
@@ -10429,7 +11806,7 @@
         <v>348.75</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>44970.583333333336</v>
       </c>
@@ -10457,7 +11834,7 @@
         <v>348.75</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>44970.625</v>
       </c>
@@ -10485,7 +11862,7 @@
         <v>350.63</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>44970.666666666664</v>
       </c>
@@ -10513,7 +11890,7 @@
         <v>338.03</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>44970.708333333336</v>
       </c>
@@ -10541,7 +11918,7 @@
         <v>351.98</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>44970.75</v>
       </c>
@@ -10569,7 +11946,7 @@
         <v>417.68</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>44970.791666666664</v>
       </c>
@@ -10597,7 +11974,7 @@
         <v>867.23</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>44970.833333333336</v>
       </c>
@@ -10625,7 +12002,7 @@
         <v>981.45</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>44970.875</v>
       </c>
@@ -10653,7 +12030,7 @@
         <v>1034.18</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>44970.916666666664</v>
       </c>
@@ -10681,7 +12058,7 @@
         <v>972.53</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>44970.958333333336</v>
       </c>
@@ -10709,7 +12086,7 @@
         <v>882.9</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>44971</v>
       </c>
@@ -10737,7 +12114,7 @@
         <v>757.5</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>44971.041666666664</v>
       </c>
@@ -10765,7 +12142,7 @@
         <v>722.7</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>44971.083333333336</v>
       </c>
@@ -10793,7 +12170,7 @@
         <v>634.13</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>44971.125</v>
       </c>
@@ -10821,7 +12198,7 @@
         <v>626.85</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>44971.166666666664</v>
       </c>
@@ -10849,7 +12226,7 @@
         <v>700.13</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>44971.208333333336</v>
       </c>
@@ -10877,7 +12254,7 @@
         <v>745.13</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>44971.25</v>
       </c>
@@ -10905,7 +12282,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>44971.291666666664</v>
       </c>
@@ -10933,7 +12310,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>44971.333333333336</v>
       </c>
@@ -10961,7 +12338,7 @@
         <v>778.2</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>44971.375</v>
       </c>
@@ -10989,7 +12366,7 @@
         <v>638.03</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>44971.416666666664</v>
       </c>
@@ -11017,7 +12394,7 @@
         <v>597.83000000000004</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>44971.458333333336</v>
       </c>
@@ -11045,7 +12422,7 @@
         <v>572.92999999999995</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>44971.5</v>
       </c>
@@ -11073,7 +12450,7 @@
         <v>553.5</v>
       </c>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>44971.541666666664</v>
       </c>
@@ -11101,7 +12478,7 @@
         <v>523.88</v>
       </c>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>44971.583333333336</v>
       </c>
@@ -11129,7 +12506,7 @@
         <v>563.48</v>
       </c>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>44971.625</v>
       </c>
@@ -11157,7 +12534,7 @@
         <v>582.75</v>
       </c>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>44971.666666666664</v>
       </c>
@@ -11185,7 +12562,7 @@
         <v>581.63</v>
       </c>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>44971.708333333336</v>
       </c>
@@ -11213,7 +12590,7 @@
         <v>730.95</v>
       </c>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>44971.75</v>
       </c>
@@ -11241,7 +12618,7 @@
         <v>864.38</v>
       </c>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>44971.791666666664</v>
       </c>
@@ -11269,7 +12646,7 @@
         <v>1051.43</v>
       </c>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>44971.833333333336</v>
       </c>
@@ -11297,7 +12674,7 @@
         <v>1049.4000000000001</v>
       </c>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>44971.875</v>
       </c>
@@ -11325,7 +12702,7 @@
         <v>929.4</v>
       </c>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>44971.916666666664</v>
       </c>
@@ -11353,7 +12730,7 @@
         <v>714.38</v>
       </c>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>44971.958333333336</v>
       </c>
